--- a/Luban/MiniTemplate/Datas/#Skill.xlsx
+++ b/Luban/MiniTemplate/Datas/#Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ugit\XHFrameworkSkill\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7E7481-72BE-46AE-BC33-A9FFFE052AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA72906-3C71-449A-BCF6-75D8A976B3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4370" yWindow="3670" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="2440" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Luban/MiniTemplate/Datas/#Skill.xlsx
+++ b/Luban/MiniTemplate/Datas/#Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ugit\XHFrameworkSkill\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA72906-3C71-449A-BCF6-75D8A976B3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850980D-E169-45AA-A363-4E9FC800CB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="2440" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>SkillGraphDataPath</t>
-  </si>
-  <si>
     <t>IconPath</t>
   </si>
   <si>
@@ -55,15 +52,9 @@
     <t>##group</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>策划备注</t>
   </si>
   <si>
-    <t>资源名称</t>
-  </si>
-  <si>
     <t>图标</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t>横扫</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\Sweep</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01101</t>
   </si>
   <si>
@@ -88,27 +76,18 @@
     <t>流血</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\Blood</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01102</t>
   </si>
   <si>
     <t>践踏</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\Wind</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01103</t>
   </si>
   <si>
     <t>旋风斩</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\FireCircle</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01104</t>
   </si>
   <si>
@@ -118,9 +97,6 @@
     <t>神罗天正</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\God</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01105</t>
   </si>
   <si>
@@ -130,9 +106,6 @@
     <t>万象天引</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\Wan</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01106</t>
   </si>
   <si>
@@ -142,9 +115,6 @@
     <t>回血</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\RecBlood</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01107</t>
   </si>
   <si>
@@ -154,9 +124,6 @@
     <t>三火球</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\ThreeFire</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01108</t>
   </si>
   <si>
@@ -166,9 +133,6 @@
     <t>急速</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\SpeedUp</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01209</t>
   </si>
   <si>
@@ -181,9 +145,6 @@
     <t>被动回血</t>
   </si>
   <si>
-    <t>ScriptObject\SkillAsset\BeRecBlood</t>
-  </si>
-  <si>
     <t>Sprites/SkillIcon/01210</t>
   </si>
   <si>
@@ -191,9 +152,6 @@
   </si>
   <si>
     <t>火球术</t>
-  </si>
-  <si>
-    <t>ScriptObject\SkillAsset\RuFood</t>
   </si>
   <si>
     <t>RuFood</t>
@@ -540,25 +498,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.9140625" style="2" customWidth="1"/>
     <col min="4" max="5" width="16.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.08203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.9140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.9140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,246 +531,201 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1004</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1005</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1006</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1007</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1008</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1009</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2001</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>7001</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/#Skill.xlsx
+++ b/Luban/MiniTemplate/Datas/#Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ugit\XHFrameworkSkill\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850980D-E169-45AA-A363-4E9FC800CB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4BEEDF-1BC3-416E-B41A-3C3AA6775AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>急速</t>
-  </si>
-  <si>
-    <t>Sprites/SkillIcon/01209</t>
   </si>
   <si>
     <t>战士被动</t>
@@ -163,6 +160,18 @@
   </si>
   <si>
     <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireCircle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SkillIcon/01110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SkillIcon/01109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -604,7 +613,7 @@
         <v>1003</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -618,7 +627,7 @@
         <v>1004</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -693,39 +702,53 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>37</v>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>2001</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
+        <v>1010</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
+        <v>2001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
         <v>7001</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
